--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N2">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P2">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q2">
-        <v>44.04776823180796</v>
+        <v>174.4169433467066</v>
       </c>
       <c r="R2">
-        <v>44.04776823180796</v>
+        <v>1569.75249012036</v>
       </c>
       <c r="S2">
-        <v>0.000451341534570717</v>
+        <v>0.001669597081901825</v>
       </c>
       <c r="T2">
-        <v>0.000451341534570717</v>
+        <v>0.001669597081901825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N3">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P3">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q3">
-        <v>49.94647405732535</v>
+        <v>185.6242087399657</v>
       </c>
       <c r="R3">
-        <v>49.94647405732535</v>
+        <v>1670.617878659691</v>
       </c>
       <c r="S3">
-        <v>0.0005117834376714447</v>
+        <v>0.001776878044620508</v>
       </c>
       <c r="T3">
-        <v>0.0005117834376714447</v>
+        <v>0.001776878044620508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N4">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P4">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q4">
-        <v>11.94945357233393</v>
+        <v>51.97459960269199</v>
       </c>
       <c r="R4">
-        <v>11.94945357233393</v>
+        <v>467.771396424228</v>
       </c>
       <c r="S4">
-        <v>0.0001224417247256607</v>
+        <v>0.0004975241405141209</v>
       </c>
       <c r="T4">
-        <v>0.0001224417247256607</v>
+        <v>0.0004975241405141208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N5">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P5">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q5">
-        <v>39172.68111041934</v>
+        <v>42536.24397567315</v>
       </c>
       <c r="R5">
-        <v>39172.68111041934</v>
+        <v>382826.1957810583</v>
       </c>
       <c r="S5">
-        <v>0.4013882817531414</v>
+        <v>0.4071759741579543</v>
       </c>
       <c r="T5">
-        <v>0.4013882817531414</v>
+        <v>0.4071759741579542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N6">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P6">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q6">
-        <v>44418.53422722506</v>
+        <v>45269.43586586795</v>
       </c>
       <c r="R6">
-        <v>44418.53422722506</v>
+        <v>407424.9227928115</v>
       </c>
       <c r="S6">
-        <v>0.4551406394982932</v>
+        <v>0.433339310795932</v>
       </c>
       <c r="T6">
-        <v>0.4551406394982932</v>
+        <v>0.4333393107959319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N7">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P7">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q7">
-        <v>10626.92056881052</v>
+        <v>12675.39842642114</v>
       </c>
       <c r="R7">
-        <v>10626.92056881052</v>
+        <v>114078.5858377903</v>
       </c>
       <c r="S7">
-        <v>0.1088902078317893</v>
+        <v>0.1213345895107692</v>
       </c>
       <c r="T7">
-        <v>0.1088902078317893</v>
+        <v>0.1213345895107692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H8">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I8">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J8">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.5343132561471</v>
+        <v>28.72417333333333</v>
       </c>
       <c r="N8">
-        <v>26.5343132561471</v>
+        <v>86.17251999999999</v>
       </c>
       <c r="O8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="P8">
-        <v>0.4157658261177252</v>
+        <v>0.4233259107972328</v>
       </c>
       <c r="Q8">
-        <v>1359.099722982513</v>
+        <v>1512.710217092106</v>
       </c>
       <c r="R8">
-        <v>1359.099722982513</v>
+        <v>13614.39195382896</v>
       </c>
       <c r="S8">
-        <v>0.01392620283001307</v>
+        <v>0.01448033955737676</v>
       </c>
       <c r="T8">
-        <v>0.01392620283001307</v>
+        <v>0.01448033955737676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H9">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I9">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J9">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0876852988903</v>
+        <v>30.56986233333333</v>
       </c>
       <c r="N9">
-        <v>30.0876852988903</v>
+        <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="P9">
-        <v>0.4714435686917675</v>
+        <v>0.4505269713084062</v>
       </c>
       <c r="Q9">
-        <v>1541.105072520899</v>
+        <v>1609.910320136831</v>
       </c>
       <c r="R9">
-        <v>1541.105072520899</v>
+        <v>14489.19288123148</v>
       </c>
       <c r="S9">
-        <v>0.01579114575580278</v>
+        <v>0.01541078246785386</v>
       </c>
       <c r="T9">
-        <v>0.01579114575580278</v>
+        <v>0.01541078246785386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H10">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I10">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J10">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.19833392374078</v>
+        <v>8.559531999999999</v>
       </c>
       <c r="N10">
-        <v>7.19833392374078</v>
+        <v>25.678596</v>
       </c>
       <c r="O10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="P10">
-        <v>0.1127906051905073</v>
+        <v>0.126147117894361</v>
       </c>
       <c r="Q10">
-        <v>368.7019726966278</v>
+        <v>450.773338528112</v>
       </c>
       <c r="R10">
-        <v>368.7019726966278</v>
+        <v>4056.960046753008</v>
       </c>
       <c r="S10">
-        <v>0.003777955633992316</v>
+        <v>0.004315004243077686</v>
       </c>
       <c r="T10">
-        <v>0.003777955633992316</v>
+        <v>0.004315004243077685</v>
       </c>
     </row>
   </sheetData>
